--- a/AzureMLExcelAddInStarterKit/Sample Azure ML.xlsx
+++ b/AzureMLExcelAddInStarterKit/Sample Azure ML.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="31">
   <si>
     <t>age</t>
   </si>
@@ -103,6 +103,15 @@
   </si>
   <si>
     <t>&lt;=70K</t>
+  </si>
+  <si>
+    <t>Scored Labels</t>
+  </si>
+  <si>
+    <t>Scored Probabilities</t>
+  </si>
+  <si>
+    <t>&gt;50K</t>
   </si>
 </sst>
 </file>
@@ -653,10 +662,1235 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Predicted Risk Score</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Scored Probabilities</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC0CB"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E435-47E4-9DE6-4505164987E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="4B0082"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-E435-47E4-9DE6-4505164987E6}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$P$2:$P$49</c:f>
+              <c:strCache>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>&lt;=50K</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>&gt;50K</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0.436649680137634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.33007144927978499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.323820561170578</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17533849179744701</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8456750810146297E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.698688983917236</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.78291624784469604</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.60165017843246504</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.84742921590805098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80156260728836104</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.84913384914398204</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53795158863067605</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.436649680137634</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.33007144927978499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.323820561170578</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.17533849179744701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8456750810146297E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.698688983917236</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.78291624784469604</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.60165017843246504</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.84742921590805098</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.80156260728836104</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.84913384914398204</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.53795158863067605</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.436649680137634</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.33007144927978499</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.323820561170578</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.17533849179744701</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.8456750810146297E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.698688983917236</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.78291624784469604</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.60165017843246504</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.84742921590805098</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.80156260728836104</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.84913384914398204</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.53795158863067605</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.436649680137634</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33007144927978499</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.323820561170578</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.17533849179744701</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.8456750810146297E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.698688983917236</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78291624784469604</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.60165017843246504</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.84742921590805098</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.80156260728836104</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.84913384914398204</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.53795158863067605</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E435-47E4-9DE6-4505164987E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="345168840"/>
+        <c:axId val="345167200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="345168840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345167200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="345167200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345168840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:O49" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:O49"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:Q49" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:Q49"/>
+  <tableColumns count="17">
     <tableColumn id="1" name="age"/>
     <tableColumn id="2" name="workclass"/>
     <tableColumn id="3" name="fnlwgt"/>
@@ -672,6 +1906,8 @@
     <tableColumn id="13" name="hours-per-week"/>
     <tableColumn id="14" name="native-country"/>
     <tableColumn id="15" name="income"/>
+    <tableColumn id="16" name="Scored Labels"/>
+    <tableColumn id="17" name="Scored Probabilities"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -753,6 +1989,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -788,6 +2041,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -940,7 +2210,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="" visibility="1" width="116" row="1">
+  <wetp:taskpane dockstate="" visibility="1" width="525" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -958,15 +2228,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection sqref="A1:O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1012,8 +2282,14 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>40</v>
       </c>
@@ -1059,8 +2335,14 @@
       <c r="O2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2">
+        <v>0.436649680137634</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>35</v>
       </c>
@@ -1106,8 +2388,14 @@
       <c r="O3" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3">
+        <v>0.33007144927978499</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>30</v>
       </c>
@@ -1153,8 +2441,14 @@
       <c r="O4" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4">
+        <v>0.323820561170578</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>25</v>
       </c>
@@ -1200,8 +2494,14 @@
       <c r="O5" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5">
+        <v>0.17533849179744701</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>20</v>
       </c>
@@ -1247,8 +2547,14 @@
       <c r="O6" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6">
+        <v>4.8456750810146297E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>40</v>
       </c>
@@ -1294,8 +2600,14 @@
       <c r="O7" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q7">
+        <v>0.698688983917236</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>65</v>
       </c>
@@ -1341,8 +2653,14 @@
       <c r="O8" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8">
+        <v>0.78291624784469604</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>70</v>
       </c>
@@ -1388,8 +2706,14 @@
       <c r="O9" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9">
+        <v>0.60165017843246504</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>54</v>
       </c>
@@ -1435,8 +2759,14 @@
       <c r="O10" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P10" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10">
+        <v>0.84742921590805098</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>45</v>
       </c>
@@ -1482,8 +2812,14 @@
       <c r="O11" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q11">
+        <v>0.80156260728836104</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>43</v>
       </c>
@@ -1529,8 +2865,14 @@
       <c r="O12" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12">
+        <v>0.84913384914398204</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>80</v>
       </c>
@@ -1576,8 +2918,14 @@
       <c r="O13" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13">
+        <v>0.53795158863067605</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>40</v>
       </c>
@@ -1623,8 +2971,14 @@
       <c r="O14" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14">
+        <v>0.436649680137634</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>35</v>
       </c>
@@ -1670,8 +3024,14 @@
       <c r="O15" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15">
+        <v>0.33007144927978499</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>30</v>
       </c>
@@ -1717,8 +3077,14 @@
       <c r="O16" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q16">
+        <v>0.323820561170578</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>25</v>
       </c>
@@ -1764,8 +3130,14 @@
       <c r="O17" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q17">
+        <v>0.17533849179744701</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>20</v>
       </c>
@@ -1811,8 +3183,14 @@
       <c r="O18" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P18" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q18">
+        <v>4.8456750810146297E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>40</v>
       </c>
@@ -1858,8 +3236,14 @@
       <c r="O19" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P19" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19">
+        <v>0.698688983917236</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>65</v>
       </c>
@@ -1905,8 +3289,14 @@
       <c r="O20" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P20" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20">
+        <v>0.78291624784469604</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>70</v>
       </c>
@@ -1952,8 +3342,14 @@
       <c r="O21" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P21" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21">
+        <v>0.60165017843246504</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>54</v>
       </c>
@@ -1999,8 +3395,14 @@
       <c r="O22" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P22" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22">
+        <v>0.84742921590805098</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>45</v>
       </c>
@@ -2046,8 +3448,14 @@
       <c r="O23" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23">
+        <v>0.80156260728836104</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>43</v>
       </c>
@@ -2093,8 +3501,14 @@
       <c r="O24" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P24" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24">
+        <v>0.84913384914398204</v>
+      </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>80</v>
       </c>
@@ -2140,8 +3554,14 @@
       <c r="O25" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P25" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25">
+        <v>0.53795158863067605</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>40</v>
       </c>
@@ -2187,8 +3607,14 @@
       <c r="O26" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26">
+        <v>0.436649680137634</v>
+      </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>35</v>
       </c>
@@ -2234,8 +3660,14 @@
       <c r="O27" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P27" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q27">
+        <v>0.33007144927978499</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>30</v>
       </c>
@@ -2281,8 +3713,14 @@
       <c r="O28" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P28" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28">
+        <v>0.323820561170578</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>25</v>
       </c>
@@ -2328,8 +3766,14 @@
       <c r="O29" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q29">
+        <v>0.17533849179744701</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>20</v>
       </c>
@@ -2375,8 +3819,14 @@
       <c r="O30" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P30" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q30">
+        <v>4.8456750810146297E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>40</v>
       </c>
@@ -2422,8 +3872,14 @@
       <c r="O31" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P31" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31">
+        <v>0.698688983917236</v>
+      </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>65</v>
       </c>
@@ -2469,8 +3925,14 @@
       <c r="O32" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32">
+        <v>0.78291624784469604</v>
+      </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>70</v>
       </c>
@@ -2516,8 +3978,14 @@
       <c r="O33" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P33" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33">
+        <v>0.60165017843246504</v>
+      </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>54</v>
       </c>
@@ -2563,8 +4031,14 @@
       <c r="O34" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P34" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34">
+        <v>0.84742921590805098</v>
+      </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>45</v>
       </c>
@@ -2610,8 +4084,14 @@
       <c r="O35" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P35" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35">
+        <v>0.80156260728836104</v>
+      </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>43</v>
       </c>
@@ -2657,8 +4137,14 @@
       <c r="O36" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P36" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36">
+        <v>0.84913384914398204</v>
+      </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>80</v>
       </c>
@@ -2704,8 +4190,14 @@
       <c r="O37" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P37" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q37">
+        <v>0.53795158863067605</v>
+      </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>40</v>
       </c>
@@ -2751,8 +4243,14 @@
       <c r="O38" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P38" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q38">
+        <v>0.436649680137634</v>
+      </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>35</v>
       </c>
@@ -2798,8 +4296,14 @@
       <c r="O39" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P39" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q39">
+        <v>0.33007144927978499</v>
+      </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>30</v>
       </c>
@@ -2845,8 +4349,14 @@
       <c r="O40" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P40" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q40">
+        <v>0.323820561170578</v>
+      </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>25</v>
       </c>
@@ -2892,8 +4402,14 @@
       <c r="O41" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P41" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q41">
+        <v>0.17533849179744701</v>
+      </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>20</v>
       </c>
@@ -2939,8 +4455,14 @@
       <c r="O42" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P42" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42">
+        <v>4.8456750810146297E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>40</v>
       </c>
@@ -2986,8 +4508,14 @@
       <c r="O43" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P43" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q43">
+        <v>0.698688983917236</v>
+      </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>65</v>
       </c>
@@ -3033,8 +4561,14 @@
       <c r="O44" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P44" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q44">
+        <v>0.78291624784469604</v>
+      </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>70</v>
       </c>
@@ -3080,8 +4614,14 @@
       <c r="O45" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P45" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q45">
+        <v>0.60165017843246504</v>
+      </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>54</v>
       </c>
@@ -3127,8 +4667,14 @@
       <c r="O46" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P46" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q46">
+        <v>0.84742921590805098</v>
+      </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3174,8 +4720,14 @@
       <c r="O47" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="P47" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q47">
+        <v>0.80156260728836104</v>
+      </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>43</v>
       </c>
@@ -3221,8 +4773,14 @@
       <c r="O48" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="P48" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q48">
+        <v>0.84913384914398204</v>
+      </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>80</v>
       </c>
@@ -3267,12 +4825,19 @@
       </c>
       <c r="O49" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="P49" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q49">
+        <v>0.53795158863067605</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>